--- a/ERP/ERP.Web/Content/Files/IMPORT_TONKHO_HANG.xlsx
+++ b/ERP/ERP.Web/Content/Files/IMPORT_TONKHO_HANG.xlsx
@@ -16,30 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>MA_HANG_HT</t>
+    <t>STT</t>
   </si>
   <si>
-    <t>MA_NHOM_HANG</t>
+    <t>MÃ HÀNG</t>
   </si>
   <si>
-    <t>SL_TON</t>
+    <t>MÃ NHÓM HÀNG</t>
   </si>
   <si>
-    <t>AP-Z</t>
-  </si>
-  <si>
-    <t>APR-S</t>
-  </si>
-  <si>
-    <t>A16-CAM</t>
-  </si>
-  <si>
-    <t>A165-CTM</t>
-  </si>
-  <si>
-    <t>OMRON</t>
+    <t>SL TỒN</t>
   </si>
 </sst>
 </file>
@@ -378,19 +366,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,49 +388,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
